--- a/data/excel/AmNews_delude.xlsx
+++ b/data/excel/AmNews_delude.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba4es16\Work Folders\Documents\Aufsätze\Leuven 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba4es16\Work Folders\Documents\Aufsätze\Leuven 2022\R_project_verbs_of_deceiving\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,9 +122,6 @@
     <t>interpretator_type</t>
   </si>
   <si>
-    <t>into believin</t>
-  </si>
-  <si>
     <t>passive</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>verbal</t>
+  </si>
+  <si>
+    <t>into believing</t>
   </si>
 </sst>
 </file>
@@ -503,12 +503,15 @@
   <dimension ref="A1:X188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -595,7 +598,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>1991</v>
@@ -610,13 +613,13 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -630,7 +633,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>1991</v>
@@ -645,13 +648,13 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -665,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>1991</v>
@@ -677,16 +680,16 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -700,13 +703,13 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>1991</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -715,13 +718,13 @@
         <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -735,13 +738,13 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>1991</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -750,13 +753,13 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
       <c r="X6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -770,13 +773,13 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>1991</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -785,13 +788,13 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -805,28 +808,28 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>1991</v>
       </c>
       <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -840,28 +843,28 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>1991</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>26</v>
       </c>
       <c r="X9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>1991</v>
@@ -890,13 +893,13 @@
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="X10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -910,7 +913,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1991</v>
@@ -925,13 +928,13 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
       </c>
       <c r="X11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -945,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>1991</v>
@@ -960,13 +963,13 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
       <c r="X12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>1991</v>
@@ -995,13 +998,13 @@
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
       <c r="X13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1015,7 +1018,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1991</v>
@@ -1030,13 +1033,13 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
       </c>
       <c r="X14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1050,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>1991</v>
@@ -1065,13 +1068,13 @@
         <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
         <v>25</v>
       </c>
       <c r="X15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1085,7 +1088,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1991</v>
@@ -1100,13 +1103,13 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
         <v>25</v>
       </c>
       <c r="X16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -1120,7 +1123,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>1991</v>
@@ -1135,13 +1138,13 @@
         <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
       </c>
       <c r="X17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1155,7 +1158,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>1991</v>
@@ -1167,16 +1170,16 @@
         <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
       <c r="X18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -1190,7 +1193,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>1991</v>
@@ -1202,16 +1205,16 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
       </c>
       <c r="X19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1225,7 +1228,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>1991</v>
@@ -1237,16 +1240,16 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
         <v>26</v>
       </c>
       <c r="X20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -1260,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>1991</v>
@@ -1272,16 +1275,16 @@
         <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
         <v>26</v>
       </c>
       <c r="X21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -1295,7 +1298,7 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>1991</v>
@@ -1307,16 +1310,16 @@
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
       </c>
       <c r="X22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -1330,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>1991</v>
@@ -1342,16 +1345,16 @@
         <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
       <c r="X23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -1365,7 +1368,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>1991</v>
@@ -1377,16 +1380,16 @@
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
         <v>26</v>
       </c>
       <c r="X24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -1400,7 +1403,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>1991</v>
@@ -1412,16 +1415,16 @@
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s">
         <v>26</v>
       </c>
       <c r="X25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -1435,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>1991</v>
@@ -1447,16 +1450,16 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s">
         <v>26</v>
       </c>
       <c r="X26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -1470,7 +1473,7 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>1991</v>
@@ -1482,16 +1485,16 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
         <v>26</v>
       </c>
       <c r="X27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -1505,7 +1508,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>1991</v>
@@ -1517,16 +1520,16 @@
         <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
         <v>26</v>
       </c>
       <c r="X28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -1540,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>1991</v>
@@ -1552,16 +1555,16 @@
         <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -1575,7 +1578,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>1991</v>
@@ -1587,16 +1590,16 @@
         <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
         <v>26</v>
       </c>
       <c r="X30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -1610,7 +1613,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>1991</v>
@@ -1622,16 +1625,16 @@
         <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>26</v>
       </c>
       <c r="X31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -1642,16 +1645,16 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>2001</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
@@ -1660,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
         <v>26</v>
       </c>
       <c r="X32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -1677,16 +1680,16 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>2001</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
@@ -1695,13 +1698,13 @@
         <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
         <v>25</v>
       </c>
       <c r="X33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -1712,31 +1715,31 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>2001</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
         <v>26</v>
       </c>
       <c r="X34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -1747,31 +1750,31 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35">
         <v>2001</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
         <v>26</v>
       </c>
       <c r="X35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -1782,10 +1785,10 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>2001</v>
@@ -1800,13 +1803,13 @@
         <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
         <v>26</v>
       </c>
       <c r="X36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -1817,10 +1820,10 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37">
         <v>2001</v>
@@ -1835,13 +1838,13 @@
         <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s">
         <v>26</v>
       </c>
       <c r="X37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -1852,10 +1855,10 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38">
         <v>2001</v>
@@ -1870,13 +1873,13 @@
         <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s">
         <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -1887,10 +1890,10 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>2001</v>
@@ -1905,13 +1908,13 @@
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s">
         <v>26</v>
       </c>
       <c r="X39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -1922,10 +1925,10 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <v>2001</v>
@@ -1940,13 +1943,13 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s">
         <v>25</v>
       </c>
       <c r="X40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -1957,10 +1960,10 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>2001</v>
@@ -1975,13 +1978,13 @@
         <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s">
         <v>25</v>
       </c>
       <c r="X41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -1992,10 +1995,10 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42">
         <v>2001</v>
@@ -2010,13 +2013,13 @@
         <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s">
         <v>25</v>
       </c>
       <c r="X42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -2027,10 +2030,10 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43">
         <v>2001</v>
@@ -2045,13 +2048,13 @@
         <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
       <c r="X43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -2062,10 +2065,10 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44">
         <v>2001</v>
@@ -2080,13 +2083,13 @@
         <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44" t="s">
         <v>25</v>
       </c>
       <c r="X44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -2097,10 +2100,10 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45">
         <v>2001</v>
@@ -2112,16 +2115,16 @@
         <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45" t="s">
         <v>26</v>
       </c>
       <c r="X45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -2132,10 +2135,10 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <v>2001</v>
@@ -2147,16 +2150,16 @@
         <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46" t="s">
         <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -2167,10 +2170,10 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47">
         <v>2001</v>
@@ -2182,16 +2185,16 @@
         <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s">
         <v>26</v>
       </c>
       <c r="X47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -2202,10 +2205,10 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48">
         <v>2001</v>
@@ -2217,16 +2220,16 @@
         <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s">
         <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -2237,10 +2240,10 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49">
         <v>2001</v>
@@ -2252,16 +2255,16 @@
         <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
         <v>26</v>
       </c>
       <c r="X49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -2272,10 +2275,10 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50">
         <v>2001</v>
@@ -2287,16 +2290,16 @@
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s">
         <v>26</v>
       </c>
       <c r="X50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -2307,10 +2310,10 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51">
         <v>2001</v>
@@ -2322,16 +2325,16 @@
         <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
         <v>26</v>
       </c>
       <c r="X51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -2342,10 +2345,10 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52">
         <v>1993.5</v>
@@ -2360,13 +2363,13 @@
         <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52" t="s">
         <v>26</v>
       </c>
       <c r="X52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -2377,10 +2380,10 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53">
         <v>1993.5</v>
@@ -2395,13 +2398,13 @@
         <v>27</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
         <v>26</v>
       </c>
       <c r="X53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -2412,10 +2415,10 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54">
         <v>1993.5</v>
@@ -2430,13 +2433,13 @@
         <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s">
         <v>25</v>
       </c>
       <c r="X54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -2447,10 +2450,10 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55">
         <v>1993.5</v>
@@ -2465,13 +2468,13 @@
         <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
         <v>25</v>
       </c>
       <c r="X55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -2482,10 +2485,10 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>1993.5</v>
@@ -2497,16 +2500,16 @@
         <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s">
         <v>26</v>
       </c>
       <c r="X56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -2517,10 +2520,10 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57">
         <v>1993.5</v>
@@ -2532,16 +2535,16 @@
         <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s">
         <v>26</v>
       </c>
       <c r="X57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -2552,10 +2555,10 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58">
         <v>1993.5</v>
@@ -2567,16 +2570,16 @@
         <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
         <v>25</v>
       </c>
       <c r="X58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -2587,10 +2590,10 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>1993.5</v>
@@ -2602,16 +2605,16 @@
         <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59" t="s">
         <v>25</v>
       </c>
       <c r="X59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -2622,10 +2625,10 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60">
         <v>1993.5</v>
@@ -2637,16 +2640,16 @@
         <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s">
         <v>25</v>
       </c>
       <c r="X60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -2657,10 +2660,10 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61">
         <v>1993.5</v>
@@ -2672,16 +2675,16 @@
         <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
         <v>26</v>
       </c>
       <c r="X61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -2692,16 +2695,16 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E62">
         <v>1993.5</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -2710,13 +2713,13 @@
         <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
         <v>26</v>
       </c>
       <c r="X62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -2727,16 +2730,16 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>1993.5</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
@@ -2745,13 +2748,13 @@
         <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s">
         <v>26</v>
       </c>
       <c r="X63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
@@ -2762,10 +2765,10 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E64">
         <v>1993.5</v>
@@ -2780,13 +2783,13 @@
         <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s">
         <v>26</v>
       </c>
       <c r="X64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -2797,10 +2800,10 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65">
         <v>1993.5</v>
@@ -2815,13 +2818,13 @@
         <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s">
         <v>26</v>
       </c>
       <c r="X65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -2832,10 +2835,10 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66">
         <v>1993.5</v>
@@ -2850,13 +2853,13 @@
         <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J66" t="s">
         <v>26</v>
       </c>
       <c r="X66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -2867,10 +2870,10 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67">
         <v>1993.5</v>
@@ -2885,13 +2888,13 @@
         <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67" t="s">
         <v>25</v>
       </c>
       <c r="X67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -2902,10 +2905,10 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>1993.5</v>
@@ -2920,13 +2923,13 @@
         <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J68" t="s">
         <v>25</v>
       </c>
       <c r="X68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -2937,10 +2940,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E69">
         <v>1993.5</v>
@@ -2955,13 +2958,13 @@
         <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69" t="s">
         <v>25</v>
       </c>
       <c r="X69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -2972,10 +2975,10 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E70">
         <v>1993.5</v>
@@ -2990,13 +2993,13 @@
         <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J70" t="s">
         <v>25</v>
       </c>
       <c r="X70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
@@ -3007,10 +3010,10 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71">
         <v>1993.5</v>
@@ -3022,16 +3025,16 @@
         <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71" t="s">
         <v>26</v>
       </c>
       <c r="X71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -3042,10 +3045,10 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72">
         <v>1993.5</v>
@@ -3057,16 +3060,16 @@
         <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
         <v>26</v>
       </c>
       <c r="X72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -3077,10 +3080,10 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E73">
         <v>1993.5</v>
@@ -3092,16 +3095,16 @@
         <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J73" t="s">
         <v>25</v>
       </c>
       <c r="X73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -3112,10 +3115,10 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74">
         <v>1993.5</v>
@@ -3127,16 +3130,16 @@
         <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s">
         <v>25</v>
       </c>
       <c r="X74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -3147,10 +3150,10 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75">
         <v>1993.5</v>
@@ -3162,16 +3165,16 @@
         <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J75" t="s">
         <v>26</v>
       </c>
       <c r="X75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -3182,10 +3185,10 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76">
         <v>1993.5</v>
@@ -3197,16 +3200,16 @@
         <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J76" t="s">
         <v>26</v>
       </c>
       <c r="X76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
@@ -3217,10 +3220,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77">
         <v>1993.5</v>
@@ -3232,16 +3235,16 @@
         <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J77" t="s">
         <v>26</v>
       </c>
       <c r="X77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
@@ -3252,10 +3255,10 @@
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78">
         <v>1992.5</v>
@@ -3270,13 +3273,13 @@
         <v>27</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s">
         <v>26</v>
       </c>
       <c r="X78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
@@ -3287,10 +3290,10 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E79">
         <v>1992.5</v>
@@ -3305,13 +3308,13 @@
         <v>27</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J79" t="s">
         <v>26</v>
       </c>
       <c r="X79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
@@ -3322,10 +3325,10 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E80">
         <v>1992.5</v>
@@ -3340,13 +3343,13 @@
         <v>27</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s">
         <v>25</v>
       </c>
       <c r="X80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
@@ -3357,10 +3360,10 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E81">
         <v>1992.5</v>
@@ -3375,13 +3378,13 @@
         <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J81" t="s">
         <v>25</v>
       </c>
       <c r="X81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -3392,10 +3395,10 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E82">
         <v>1992.5</v>
@@ -3410,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82" t="s">
         <v>25</v>
       </c>
       <c r="X82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -3427,10 +3430,10 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83">
         <v>1992.5</v>
@@ -3442,16 +3445,16 @@
         <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s">
         <v>25</v>
       </c>
       <c r="X83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -3462,16 +3465,16 @@
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84">
         <v>1992.5</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>25</v>
@@ -3480,13 +3483,13 @@
         <v>27</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J84" t="s">
         <v>26</v>
       </c>
       <c r="X84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -3497,16 +3500,16 @@
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E85">
         <v>1992.5</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>26</v>
@@ -3515,13 +3518,13 @@
         <v>27</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J85" t="s">
         <v>25</v>
       </c>
       <c r="X85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -3532,16 +3535,16 @@
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E86">
         <v>1992.5</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>25</v>
@@ -3550,13 +3553,13 @@
         <v>27</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J86" t="s">
         <v>25</v>
       </c>
       <c r="X86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
@@ -3567,16 +3570,16 @@
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E87">
         <v>1992.5</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>25</v>
@@ -3585,13 +3588,13 @@
         <v>27</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J87" t="s">
         <v>25</v>
       </c>
       <c r="X87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
@@ -3602,31 +3605,31 @@
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E88">
         <v>1992.5</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J88" t="s">
         <v>26</v>
       </c>
       <c r="X88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -3637,31 +3640,31 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89">
         <v>1992.5</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>26</v>
       </c>
       <c r="H89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J89" t="s">
         <v>26</v>
       </c>
       <c r="X89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -3672,10 +3675,10 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E90">
         <v>1992.5</v>
@@ -3690,13 +3693,13 @@
         <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J90" t="s">
         <v>26</v>
       </c>
       <c r="X90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -3707,10 +3710,10 @@
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E91">
         <v>1992.5</v>
@@ -3725,13 +3728,13 @@
         <v>27</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J91" t="s">
         <v>26</v>
       </c>
       <c r="X91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -3742,10 +3745,10 @@
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E92">
         <v>1992.5</v>
@@ -3760,13 +3763,13 @@
         <v>27</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J92" t="s">
         <v>25</v>
       </c>
       <c r="X92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -3777,10 +3780,10 @@
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E93">
         <v>1992.5</v>
@@ -3795,13 +3798,13 @@
         <v>27</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J93" t="s">
         <v>25</v>
       </c>
       <c r="X93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
@@ -3812,10 +3815,10 @@
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E94">
         <v>1992.5</v>
@@ -3830,13 +3833,13 @@
         <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94" t="s">
         <v>25</v>
       </c>
       <c r="X94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
@@ -3847,10 +3850,10 @@
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E95">
         <v>1992.5</v>
@@ -3865,13 +3868,13 @@
         <v>27</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J95" t="s">
         <v>25</v>
       </c>
       <c r="X95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
@@ -3882,10 +3885,10 @@
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E96">
         <v>1992.5</v>
@@ -3900,13 +3903,13 @@
         <v>27</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J96" t="s">
         <v>25</v>
       </c>
       <c r="X96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
@@ -3917,10 +3920,10 @@
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E97">
         <v>1992.5</v>
@@ -3935,13 +3938,13 @@
         <v>27</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J97" t="s">
         <v>25</v>
       </c>
       <c r="X97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
@@ -3952,10 +3955,10 @@
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E98">
         <v>1992.5</v>
@@ -3970,13 +3973,13 @@
         <v>27</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J98" t="s">
         <v>25</v>
       </c>
       <c r="X98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
@@ -3987,10 +3990,10 @@
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E99">
         <v>1992.5</v>
@@ -4005,13 +4008,13 @@
         <v>27</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J99" t="s">
         <v>25</v>
       </c>
       <c r="X99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
@@ -4022,10 +4025,10 @@
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E100">
         <v>1992.5</v>
@@ -4037,16 +4040,16 @@
         <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100" t="s">
         <v>26</v>
       </c>
       <c r="X100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
@@ -4057,10 +4060,10 @@
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E101">
         <v>1992.5</v>
@@ -4072,16 +4075,16 @@
         <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101" t="s">
         <v>26</v>
       </c>
       <c r="X101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
@@ -4092,10 +4095,10 @@
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E102">
         <v>1992.5</v>
@@ -4107,16 +4110,16 @@
         <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102" t="s">
         <v>25</v>
       </c>
       <c r="X102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
@@ -4127,10 +4130,10 @@
         <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103">
         <v>1992.5</v>
@@ -4142,16 +4145,16 @@
         <v>26</v>
       </c>
       <c r="H103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J103" t="s">
         <v>26</v>
       </c>
       <c r="X103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
@@ -4162,10 +4165,10 @@
         <v>23</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E104">
         <v>1992.5</v>
@@ -4177,16 +4180,16 @@
         <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J104" t="s">
         <v>26</v>
       </c>
       <c r="X104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
@@ -4197,10 +4200,10 @@
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E105">
         <v>1992.5</v>
@@ -4212,16 +4215,16 @@
         <v>26</v>
       </c>
       <c r="H105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J105" t="s">
         <v>26</v>
       </c>
       <c r="X105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -4232,10 +4235,10 @@
         <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E106">
         <v>1992.5</v>
@@ -4247,16 +4250,16 @@
         <v>26</v>
       </c>
       <c r="H106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J106" t="s">
         <v>26</v>
       </c>
       <c r="X106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
@@ -4267,10 +4270,10 @@
         <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E107">
         <v>1992.5</v>
@@ -4282,16 +4285,16 @@
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J107" t="s">
         <v>26</v>
       </c>
       <c r="X107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
@@ -4302,10 +4305,10 @@
         <v>23</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E108">
         <v>1992.5</v>
@@ -4317,16 +4320,16 @@
         <v>26</v>
       </c>
       <c r="H108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J108" t="s">
         <v>26</v>
       </c>
       <c r="X108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
@@ -4337,10 +4340,10 @@
         <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E109">
         <v>1992.5</v>
@@ -4352,16 +4355,16 @@
         <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J109" t="s">
         <v>26</v>
       </c>
       <c r="X109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -4372,10 +4375,10 @@
         <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E110">
         <v>1992.5</v>
@@ -4387,16 +4390,16 @@
         <v>26</v>
       </c>
       <c r="H110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J110" t="s">
         <v>26</v>
       </c>
       <c r="X110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
@@ -4407,10 +4410,10 @@
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E111">
         <v>1992.5</v>
@@ -4422,16 +4425,16 @@
         <v>26</v>
       </c>
       <c r="H111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J111" t="s">
         <v>26</v>
       </c>
       <c r="X111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
@@ -4442,10 +4445,10 @@
         <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E112">
         <v>1992.5</v>
@@ -4457,16 +4460,16 @@
         <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J112" t="s">
         <v>26</v>
       </c>
       <c r="X112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
@@ -4477,10 +4480,10 @@
         <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E113">
         <v>1992.5</v>
@@ -4492,16 +4495,16 @@
         <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J113" t="s">
         <v>26</v>
       </c>
       <c r="X113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -4512,10 +4515,10 @@
         <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E114">
         <v>1992.5</v>
@@ -4527,16 +4530,16 @@
         <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J114" t="s">
         <v>26</v>
       </c>
       <c r="X114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -4547,10 +4550,10 @@
         <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E115">
         <v>1992.5</v>
@@ -4562,16 +4565,16 @@
         <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J115" t="s">
         <v>26</v>
       </c>
       <c r="X115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -4582,10 +4585,10 @@
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E116">
         <v>1994.5</v>
@@ -4600,13 +4603,13 @@
         <v>27</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J116" t="s">
         <v>26</v>
       </c>
       <c r="X116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -4617,10 +4620,10 @@
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E117">
         <v>1994.5</v>
@@ -4635,13 +4638,13 @@
         <v>27</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J117" t="s">
         <v>25</v>
       </c>
       <c r="X117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -4652,10 +4655,10 @@
         <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E118">
         <v>1994.5</v>
@@ -4667,16 +4670,16 @@
         <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J118" t="s">
         <v>26</v>
       </c>
       <c r="X118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
@@ -4687,10 +4690,10 @@
         <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E119">
         <v>1994.5</v>
@@ -4702,16 +4705,16 @@
         <v>25</v>
       </c>
       <c r="H119" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J119" t="s">
         <v>26</v>
       </c>
       <c r="X119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -4722,16 +4725,16 @@
         <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E120">
         <v>1994.5</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>25</v>
@@ -4740,13 +4743,13 @@
         <v>27</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J120" t="s">
         <v>26</v>
       </c>
       <c r="X120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -4757,16 +4760,16 @@
         <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E121">
         <v>1994.5</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>25</v>
@@ -4775,13 +4778,13 @@
         <v>27</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J121" t="s">
         <v>25</v>
       </c>
       <c r="X121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -4792,16 +4795,16 @@
         <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E122">
         <v>1994.5</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>25</v>
@@ -4810,13 +4813,13 @@
         <v>27</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J122" t="s">
         <v>25</v>
       </c>
       <c r="X122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -4827,10 +4830,10 @@
         <v>23</v>
       </c>
       <c r="C123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E123">
         <v>1994.5</v>
@@ -4845,13 +4848,13 @@
         <v>27</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J123" t="s">
         <v>26</v>
       </c>
       <c r="X123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
@@ -4862,10 +4865,10 @@
         <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E124">
         <v>1994.5</v>
@@ -4880,13 +4883,13 @@
         <v>27</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J124" t="s">
         <v>25</v>
       </c>
       <c r="X124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
@@ -4897,10 +4900,10 @@
         <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E125">
         <v>1994.5</v>
@@ -4915,13 +4918,13 @@
         <v>27</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J125" t="s">
         <v>26</v>
       </c>
       <c r="X125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
@@ -4932,10 +4935,10 @@
         <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E126">
         <v>1994.5</v>
@@ -4950,13 +4953,13 @@
         <v>27</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J126" t="s">
         <v>26</v>
       </c>
       <c r="X126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
@@ -4967,10 +4970,10 @@
         <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E127">
         <v>1994.5</v>
@@ -4982,16 +4985,16 @@
         <v>26</v>
       </c>
       <c r="H127" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J127" t="s">
         <v>26</v>
       </c>
       <c r="X127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
@@ -5002,10 +5005,10 @@
         <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E128">
         <v>1994.5</v>
@@ -5017,16 +5020,16 @@
         <v>25</v>
       </c>
       <c r="H128" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J128" t="s">
         <v>26</v>
       </c>
       <c r="X128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.25">
@@ -5037,10 +5040,10 @@
         <v>23</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E129">
         <v>1994.5</v>
@@ -5052,16 +5055,16 @@
         <v>25</v>
       </c>
       <c r="H129" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J129" t="s">
         <v>26</v>
       </c>
       <c r="X129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
@@ -5072,10 +5075,10 @@
         <v>23</v>
       </c>
       <c r="C130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E130">
         <v>1994.5</v>
@@ -5087,16 +5090,16 @@
         <v>25</v>
       </c>
       <c r="H130" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J130" t="s">
         <v>25</v>
       </c>
       <c r="X130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
@@ -5107,10 +5110,10 @@
         <v>23</v>
       </c>
       <c r="C131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E131">
         <v>1994.5</v>
@@ -5122,16 +5125,16 @@
         <v>25</v>
       </c>
       <c r="H131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J131" t="s">
         <v>26</v>
       </c>
       <c r="X131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
@@ -5142,10 +5145,10 @@
         <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E132">
         <v>1994.5</v>
@@ -5157,16 +5160,16 @@
         <v>26</v>
       </c>
       <c r="H132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J132" t="s">
         <v>26</v>
       </c>
       <c r="X132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -5177,10 +5180,10 @@
         <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E133">
         <v>1994.5</v>
@@ -5192,16 +5195,16 @@
         <v>26</v>
       </c>
       <c r="H133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J133" t="s">
         <v>26</v>
       </c>
       <c r="X133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
@@ -5212,10 +5215,10 @@
         <v>23</v>
       </c>
       <c r="C134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E134">
         <v>1994.5</v>
@@ -5227,16 +5230,16 @@
         <v>26</v>
       </c>
       <c r="H134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J134" t="s">
         <v>26</v>
       </c>
       <c r="X134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
@@ -5247,10 +5250,10 @@
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E135">
         <v>1994.5</v>
@@ -5262,16 +5265,16 @@
         <v>25</v>
       </c>
       <c r="H135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J135" t="s">
         <v>26</v>
       </c>
       <c r="X135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
@@ -5282,10 +5285,10 @@
         <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E136">
         <v>1994.5</v>
@@ -5297,16 +5300,16 @@
         <v>25</v>
       </c>
       <c r="H136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J136" t="s">
         <v>26</v>
       </c>
       <c r="X136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
@@ -5317,10 +5320,10 @@
         <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E137">
         <v>1994.5</v>
@@ -5332,16 +5335,16 @@
         <v>25</v>
       </c>
       <c r="H137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J137" t="s">
         <v>26</v>
       </c>
       <c r="X137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
@@ -5352,10 +5355,10 @@
         <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E138">
         <v>1994.5</v>
@@ -5367,16 +5370,16 @@
         <v>25</v>
       </c>
       <c r="H138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J138" t="s">
         <v>26</v>
       </c>
       <c r="X138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
@@ -5387,10 +5390,10 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E139">
         <v>1996.5</v>
@@ -5405,13 +5408,13 @@
         <v>27</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139" t="s">
         <v>26</v>
       </c>
       <c r="X139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
@@ -5422,10 +5425,10 @@
         <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E140">
         <v>1996.5</v>
@@ -5440,13 +5443,13 @@
         <v>27</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J140" t="s">
         <v>25</v>
       </c>
       <c r="X140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
@@ -5457,16 +5460,16 @@
         <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E141">
         <v>1996.5</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>26</v>
@@ -5475,13 +5478,13 @@
         <v>27</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J141" t="s">
         <v>26</v>
       </c>
       <c r="X141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.25">
@@ -5492,16 +5495,16 @@
         <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E142">
         <v>1996.5</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>25</v>
@@ -5510,13 +5513,13 @@
         <v>27</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J142" t="s">
         <v>26</v>
       </c>
       <c r="X142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
@@ -5527,16 +5530,16 @@
         <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E143">
         <v>1996.5</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>25</v>
@@ -5545,13 +5548,13 @@
         <v>27</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J143" t="s">
         <v>26</v>
       </c>
       <c r="X143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
@@ -5562,31 +5565,31 @@
         <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E144">
         <v>1996.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>25</v>
       </c>
       <c r="H144" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J144" t="s">
         <v>25</v>
       </c>
       <c r="X144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
@@ -5597,10 +5600,10 @@
         <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E145">
         <v>1996.5</v>
@@ -5615,13 +5618,13 @@
         <v>27</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J145" t="s">
         <v>26</v>
       </c>
       <c r="X145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
@@ -5632,10 +5635,10 @@
         <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E146">
         <v>1996.5</v>
@@ -5650,13 +5653,13 @@
         <v>27</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J146" t="s">
         <v>26</v>
       </c>
       <c r="X146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
@@ -5667,10 +5670,10 @@
         <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E147">
         <v>1996.5</v>
@@ -5685,13 +5688,13 @@
         <v>27</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J147" t="s">
         <v>25</v>
       </c>
       <c r="X147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
@@ -5702,10 +5705,10 @@
         <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E148">
         <v>1996.5</v>
@@ -5720,13 +5723,13 @@
         <v>27</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J148" t="s">
         <v>25</v>
       </c>
       <c r="X148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
@@ -5737,10 +5740,10 @@
         <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E149">
         <v>1996.5</v>
@@ -5755,13 +5758,13 @@
         <v>27</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J149" t="s">
         <v>25</v>
       </c>
       <c r="X149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
@@ -5772,10 +5775,10 @@
         <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E150">
         <v>1996.5</v>
@@ -5790,13 +5793,13 @@
         <v>27</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J150" t="s">
         <v>25</v>
       </c>
       <c r="X150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
@@ -5807,10 +5810,10 @@
         <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E151">
         <v>1996.5</v>
@@ -5825,13 +5828,13 @@
         <v>27</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151" t="s">
         <v>25</v>
       </c>
       <c r="X151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
@@ -5842,10 +5845,10 @@
         <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E152">
         <v>1996.5</v>
@@ -5857,16 +5860,16 @@
         <v>25</v>
       </c>
       <c r="H152" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152" t="s">
         <v>26</v>
       </c>
       <c r="X152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
@@ -5877,10 +5880,10 @@
         <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E153">
         <v>1996.5</v>
@@ -5892,16 +5895,16 @@
         <v>25</v>
       </c>
       <c r="H153" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J153" t="s">
         <v>25</v>
       </c>
       <c r="X153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
@@ -5912,10 +5915,10 @@
         <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E154">
         <v>1996.5</v>
@@ -5927,16 +5930,16 @@
         <v>25</v>
       </c>
       <c r="H154" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J154" t="s">
         <v>25</v>
       </c>
       <c r="X154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
@@ -5947,10 +5950,10 @@
         <v>23</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E155">
         <v>1996.5</v>
@@ -5962,16 +5965,16 @@
         <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J155" t="s">
         <v>25</v>
       </c>
       <c r="X155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
@@ -5982,10 +5985,10 @@
         <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E156">
         <v>1996.5</v>
@@ -5997,16 +6000,16 @@
         <v>26</v>
       </c>
       <c r="H156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J156" t="s">
         <v>26</v>
       </c>
       <c r="X156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
@@ -6017,10 +6020,10 @@
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E157">
         <v>1996.5</v>
@@ -6032,16 +6035,16 @@
         <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J157" t="s">
         <v>26</v>
       </c>
       <c r="X157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
@@ -6052,10 +6055,10 @@
         <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E158">
         <v>1996.5</v>
@@ -6067,16 +6070,16 @@
         <v>26</v>
       </c>
       <c r="H158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J158" t="s">
         <v>26</v>
       </c>
       <c r="X158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.25">
@@ -6087,10 +6090,10 @@
         <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E159">
         <v>1996.5</v>
@@ -6102,16 +6105,16 @@
         <v>26</v>
       </c>
       <c r="H159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J159" t="s">
         <v>26</v>
       </c>
       <c r="X159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
@@ -6122,10 +6125,10 @@
         <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E160">
         <v>1996.5</v>
@@ -6137,16 +6140,16 @@
         <v>25</v>
       </c>
       <c r="H160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J160" t="s">
         <v>26</v>
       </c>
       <c r="X160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.25">
@@ -6157,10 +6160,10 @@
         <v>23</v>
       </c>
       <c r="C161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E161">
         <v>1996.5</v>
@@ -6172,16 +6175,16 @@
         <v>25</v>
       </c>
       <c r="H161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J161" t="s">
         <v>26</v>
       </c>
       <c r="X161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
@@ -6192,10 +6195,10 @@
         <v>23</v>
       </c>
       <c r="C162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E162">
         <v>1996.5</v>
@@ -6207,16 +6210,16 @@
         <v>25</v>
       </c>
       <c r="H162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J162" t="s">
         <v>26</v>
       </c>
       <c r="X162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.25">
@@ -6227,10 +6230,10 @@
         <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E163">
         <v>1996.5</v>
@@ -6242,16 +6245,16 @@
         <v>26</v>
       </c>
       <c r="H163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J163" t="s">
         <v>25</v>
       </c>
       <c r="X163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
@@ -6262,10 +6265,10 @@
         <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E164">
         <v>1998.5</v>
@@ -6280,13 +6283,13 @@
         <v>27</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J164" t="s">
         <v>25</v>
       </c>
       <c r="X164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
@@ -6297,10 +6300,10 @@
         <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E165">
         <v>1998.5</v>
@@ -6312,16 +6315,16 @@
         <v>26</v>
       </c>
       <c r="H165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J165" t="s">
         <v>26</v>
       </c>
       <c r="X165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
@@ -6332,16 +6335,16 @@
         <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E166">
         <v>1998.5</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>26</v>
@@ -6350,13 +6353,13 @@
         <v>27</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J166" t="s">
         <v>26</v>
       </c>
       <c r="X166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
@@ -6367,16 +6370,16 @@
         <v>23</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E167">
         <v>1998.5</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
         <v>26</v>
@@ -6385,13 +6388,13 @@
         <v>27</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J167" t="s">
         <v>25</v>
       </c>
       <c r="X167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
@@ -6402,31 +6405,31 @@
         <v>23</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E168">
         <v>1998.5</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>26</v>
       </c>
       <c r="H168" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J168" t="s">
         <v>26</v>
       </c>
       <c r="X168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
@@ -6437,31 +6440,31 @@
         <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E169">
         <v>1998.5</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J169" t="s">
         <v>25</v>
       </c>
       <c r="X169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
@@ -6472,10 +6475,10 @@
         <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E170">
         <v>1998.5</v>
@@ -6490,13 +6493,13 @@
         <v>27</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J170" t="s">
         <v>26</v>
       </c>
       <c r="X170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.25">
@@ -6507,10 +6510,10 @@
         <v>23</v>
       </c>
       <c r="C171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E171">
         <v>1998.5</v>
@@ -6525,13 +6528,13 @@
         <v>27</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J171" t="s">
         <v>26</v>
       </c>
       <c r="X171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
@@ -6542,10 +6545,10 @@
         <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E172">
         <v>1998.5</v>
@@ -6560,13 +6563,13 @@
         <v>27</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J172" t="s">
         <v>25</v>
       </c>
       <c r="X172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
@@ -6577,10 +6580,10 @@
         <v>23</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E173">
         <v>1998.5</v>
@@ -6595,13 +6598,13 @@
         <v>27</v>
       </c>
       <c r="I173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J173" t="s">
         <v>25</v>
       </c>
       <c r="X173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.25">
@@ -6612,10 +6615,10 @@
         <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E174">
         <v>1998.5</v>
@@ -6627,16 +6630,16 @@
         <v>26</v>
       </c>
       <c r="H174" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J174" t="s">
         <v>26</v>
       </c>
       <c r="X174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
@@ -6647,10 +6650,10 @@
         <v>23</v>
       </c>
       <c r="C175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E175">
         <v>1998.5</v>
@@ -6662,16 +6665,16 @@
         <v>26</v>
       </c>
       <c r="H175" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J175" t="s">
         <v>26</v>
       </c>
       <c r="X175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
@@ -6682,10 +6685,10 @@
         <v>23</v>
       </c>
       <c r="C176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E176">
         <v>1998.5</v>
@@ -6697,16 +6700,16 @@
         <v>25</v>
       </c>
       <c r="H176" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J176" t="s">
         <v>26</v>
       </c>
       <c r="X176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
@@ -6717,10 +6720,10 @@
         <v>23</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E177">
         <v>1998.5</v>
@@ -6732,16 +6735,16 @@
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J177" t="s">
         <v>25</v>
       </c>
       <c r="X177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.25">
@@ -6752,10 +6755,10 @@
         <v>23</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E178">
         <v>1998.5</v>
@@ -6767,16 +6770,16 @@
         <v>25</v>
       </c>
       <c r="H178" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J178" t="s">
         <v>25</v>
       </c>
       <c r="X178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
@@ -6787,10 +6790,10 @@
         <v>23</v>
       </c>
       <c r="C179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E179">
         <v>1998.5</v>
@@ -6802,16 +6805,16 @@
         <v>26</v>
       </c>
       <c r="H179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J179" t="s">
         <v>26</v>
       </c>
       <c r="X179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
@@ -6822,10 +6825,10 @@
         <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E180">
         <v>1998.5</v>
@@ -6837,16 +6840,16 @@
         <v>26</v>
       </c>
       <c r="H180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J180" t="s">
         <v>26</v>
       </c>
       <c r="X180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
@@ -6857,10 +6860,10 @@
         <v>23</v>
       </c>
       <c r="C181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E181">
         <v>1998.5</v>
@@ -6872,16 +6875,16 @@
         <v>26</v>
       </c>
       <c r="H181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J181" t="s">
         <v>26</v>
       </c>
       <c r="X181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.25">
@@ -6892,10 +6895,10 @@
         <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E182">
         <v>1998.5</v>
@@ -6907,16 +6910,16 @@
         <v>25</v>
       </c>
       <c r="H182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J182" t="s">
         <v>26</v>
       </c>
       <c r="X182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
@@ -6927,10 +6930,10 @@
         <v>23</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E183">
         <v>1998.5</v>
@@ -6942,16 +6945,16 @@
         <v>25</v>
       </c>
       <c r="H183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J183" t="s">
         <v>26</v>
       </c>
       <c r="X183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
@@ -6962,10 +6965,10 @@
         <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E184">
         <v>1998.5</v>
@@ -6977,16 +6980,16 @@
         <v>25</v>
       </c>
       <c r="H184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J184" t="s">
         <v>26</v>
       </c>
       <c r="X184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.25">
@@ -6997,10 +7000,10 @@
         <v>23</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E185">
         <v>1998.5</v>
@@ -7012,16 +7015,16 @@
         <v>25</v>
       </c>
       <c r="H185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J185" t="s">
         <v>26</v>
       </c>
       <c r="X185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
@@ -7032,10 +7035,10 @@
         <v>23</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E186">
         <v>1998.5</v>
@@ -7047,16 +7050,16 @@
         <v>25</v>
       </c>
       <c r="H186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J186" t="s">
         <v>26</v>
       </c>
       <c r="X186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
@@ -7067,10 +7070,10 @@
         <v>23</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E187">
         <v>1998.5</v>
@@ -7082,16 +7085,16 @@
         <v>25</v>
       </c>
       <c r="H187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J187" t="s">
         <v>26</v>
       </c>
       <c r="X187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
@@ -7102,10 +7105,10 @@
         <v>23</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E188">
         <v>1998.5</v>
@@ -7117,16 +7120,16 @@
         <v>25</v>
       </c>
       <c r="H188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J188" t="s">
         <v>26</v>
       </c>
       <c r="X188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
